--- a/模擬戦_池島.xlsx
+++ b/模擬戦_池島.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\canon.net\folder\拡張フォルダ\IJG-計測評価\計測技術開発\個人work\池島work\99_その他\㊙\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T.I\Desktop\面接\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="1650" windowWidth="16980" windowHeight="10770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>後輩がグループにいるということですが、後輩育成の観点から何か気を付けていることはありますか？</t>
     <rPh sb="0" eb="2">
@@ -859,114 +859,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チーム内でも前情報として知っておくべき知識の差があるので、全体的に</t>
-    <rPh sb="3" eb="4">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チシキ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上司の方が開発経験も知識も豊富なので、まず私の意見の考えから先に述べてから、</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウシ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>チシキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ホウフ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イケン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>役割上他部門との折衝が増えていくと思うので、電気・ファーム・プロセスの知識等広く習得する必要があると考えています。</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクワリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>タブモン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッショウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>デンキ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>チシキ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シュウトク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1064,40 +956,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1次試験の論文で生産性を向上すべき業務というのは何を書いた？装置開発では？</t>
-    <rPh sb="1" eb="2">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ロンブン</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>セイサンセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウジョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ソウチ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カイハツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>装置Grにおいてサブリーダを担当しています。</t>
     <rPh sb="0" eb="2">
       <t>ソウチ</t>
@@ -1134,44 +992,6 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社内的にも注力している商業印刷市場に投入する
-商業用プリンタヘッドの機能・性能検証をしている。</t>
-    <rPh sb="0" eb="2">
-      <t>シャナイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショウギョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シジョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>トウニュウ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ショウギョウヨウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ケンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1282,34 +1102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NVS、メディカル、有機EL等現在のキヤノンの利益を支えている部門に携わってみたいとは思っています。</t>
-    <rPh sb="10" eb="12">
-      <t>ユウキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>リエキ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ササ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ブモン</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>タズサ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実際に装置を使って頂きヘッドの評価検証を行っている部門(ユーザ)と共同で業務を行っています。</t>
     <rPh sb="0" eb="2">
       <t>ジッサイ</t>
@@ -1347,159 +1139,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>他Gr、特に電気Grとの折衝において、電気視点として見た
-専門性の高い情報が多いのでGr内にフィードバックを行う際には
-ソフト的視点に変換して分かりやすく伝えるよう工夫しています。</t>
-    <rPh sb="0" eb="1">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>デンキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セッショウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>デンキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シテン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>センモンセイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>シテン</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ツタ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>クフウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">コンシューマ・大判・商業印刷
-キヤノンの昨今を支えてきたコンシューマ
-現在インクジェットの利益を支えている大判
-</t>
-    <rPh sb="7" eb="9">
-      <t>オオバン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショウギョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サッコン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ササ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>リエキ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ササ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>オオバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キヤノンはバブルジェット方式を採用しており、エプソンほか他社はピエゾ方式を採用しています。
-バブルジェット方式はノズル間の密度を狭くする事が出来、高精細、高彩度の印刷が可能となります。</t>
-    <rPh sb="12" eb="14">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サイヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>タシャ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>サイヨウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ミツド</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>セマ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="73" eb="76">
-      <t>コウセイサイ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>課業務について</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
@@ -1569,242 +1208,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>打ち合わせ等でユーザの要望を吸い出し、
-次回以降の評価装置に反映する等</t>
-    <rPh sb="0" eb="1">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨウボウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジカイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ソウチ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ナド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まずは私自身のミッションとして上司から与えられているソフトウェア技術者として腕を磨き、その後電気の基板・回路設計、メカの装置機構等について広く学習し、ジェネラリストを目指していきたいと考えています。
-幸いにも私の課は装置の電気Gr、メカGrが介在しているので業務を遂行していくことで、自ずと目標に近づけると思います。</t>
-    <rPh sb="3" eb="4">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウシ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ギジュツシャ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ウデ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ミガ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>デンキ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>キバン</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カイロ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ソウチ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>キコウ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>メザ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>サイワ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ソウチ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>デンキ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>カイザイ</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>オノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トップダウンの</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まずは後輩の意見を先に聞き、後輩の思惑を汲み取った上でこういったやり方もあるよと別のアプローチを掛けて説得していきます。
-上から高圧的に物を言うやり方は反発を買って余計に激論化してしまうので、絶対に行わないように意識しています。</t>
-    <rPh sb="3" eb="5">
-      <t>コウハイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イケン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウハイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>オモワク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>セットク</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="64" eb="67">
-      <t>コウアツテキ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ハンパツ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ヨケイ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ゲキロン</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ゼッタイ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>イシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デジタルプリンティング開発技術第三課　池島孝史と申します。
-よろしくお願いします。
-私の課では、インクジェットプリンタのキーパーツであるプリンタヘッドの評価装置を開発しています。
-ヘッド評価装置は目的別に３種類ございますが、その中で私はプリンタヘッドの印字における最適な印字条件を検討する「印字評価装置」のソフトウェア開発を担当しています。</t>
-    <rPh sb="99" eb="101">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>インジ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>サイテキ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>インジ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>ケントウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1901,59 +1305,2004 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インクジェット市場自体が縮小傾向にあり、</t>
+    <t>優れたコンセプト、高品質、革新的コスト、かつユーザー満足度の高い競争力のある製品を開発し事業に貢献することがセンターの目的です。</t>
+    <rPh sb="0" eb="1">
+      <t>スグ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コウヒンシツ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>カクシンテキ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>マンゾクド</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>キョウソウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コウケン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皆が忙しい中、お互いにフォローし合っていて困った事があれば
+助け合う意識もあるので良い状態だと思います。</t>
+    <rPh sb="0" eb="1">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イソガ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タス</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価装置のソフト開発において設計・実装・テストフェーズに分かれており、その中で実装の次にテストフェーズに工数を使ってしまっています。そこで、ツールの導入を行い、テストの一部の自動化を行うことで、テストフェーズの工数削減に取り組んでおります。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="87" eb="90">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンシューマ・大判・商業印刷
+キヤノンの昨今を支えてきたコンシューマ
+現在インクジェットの利益を支えている大判
+そして、エンドユーザを企業にフォーカスして現在参入を推し進めている商業印刷が現在の3大事業であると考えます。</t>
     <rPh sb="7" eb="9">
-      <t>シジョウ</t>
-    </rPh>
+      <t>オオバン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サッコン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ササ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ササ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>オオバン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>サンニュウ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ショウギョウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塔に電気Grと情報のやり取りをすることが多いのですが、電気支店として見た専門性の高い情報が多いのでGr内にフィードバックを行う時はソフト視点に変換して分かりやすく伝わるよう工夫しています。</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>センモンセイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>クフウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まず業務の目的や方針を共有した上で、作業を指示するように心がけています。
+基本的には本人に任せますが、毎日状況をチェックして必要なサポートをしています。
+困った時に質問しやすくなるよう、日々のコミュニケーションも心がけています。</t>
+    <rPh sb="2" eb="4">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ホンニン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>マカ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ヒビ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ココロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術的業務においては先ほど述べた装置開発業務がメインです。</t>
+    <rPh sb="0" eb="3">
+      <t>ギジュツテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ギョウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NVS、メディカル、有機EL等現在のキヤノンの利益を支えている部門の開発手法と技術には興味があります。</t>
+    <rPh sb="10" eb="12">
+      <t>ユウキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ササ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キョウミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>将来は装置などシステム全体を把握し、開発を主導できる技術者になりたいと考えています。ソフト技術のレベルを上げるのは当然ながら、電気やメカの知識も高めたいです。幸いにも私の課は電気Gr、メカGrも揃っているのでこの環境を生かして今後勉強していきたいと思っています。
+日頃のPDCAを通じて、装置システムをどうやって立ち上げるかも習得したいと考えています。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウライ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ギジュツシャ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>トウゼン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>サイワ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ソロ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ヒゴロ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>シュウトク</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装置仕様のやり取りなどは密に行い、曖昧な部分を残さないように注意しています。
+後々の認識違いが起きないように、合意事項は議事録に残すなどしています。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>アイマイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>アトアト</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ゴウイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>ギジロク</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の考えをわかりやすくまとめて相談し、理解してもらえる努力をします。
+最終的には上司の判断を尊重します。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ドリョク</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>サイシュウテキ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ソンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まず相手の意見をよく聞いて理解することに努めます。双方の意見を並べて比較し落としどころを探ります。
+どうしても意見が合わない場合は上司や先輩に相談して客観的な判断を仰ぎます。</t>
+    <rPh sb="2" eb="4">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イケン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イケン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>サグ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>イケン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>センパイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>キャッカンテキ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装置を使う部門が多様にあるので並行して開発を行っていく上で限られた人材的リソースを用いての開発計画策定に苦労しています。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘイコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ジンザイテキ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>サクテイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>クロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーもこちらの開発状況は理解してくれているので、
+検討期間内に間に合うのであれば構わないと合意を得られました。</t>
     <rPh sb="9" eb="11">
-      <t>ジタイ</t>
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ゴウイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずは上司に相談して人材リソースの捻出を打診します。それが出来ない場合は
+ユーザに相談して現在の開発状況から期間内に新機能を実装した装置をリリースする事は難しい事を説明した上で、検討に使用する機能の優先順位を付けて貰って、優先順位が高い機能を実装した装置のリリースを行います。その上で、検討期間中に全ての機能のリリースが間に合うように開発を進めます。</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジンザイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ネンシュツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ダシン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>キカンナイ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>シンキノウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>モラ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="145" eb="148">
+      <t>キカンチュウ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あります。ユーザとの打ち合わせが足りずに必要な仕様がヌケモレした不完全な評価装置をリリースしてしまい、
+ユーザの検討期間を縮めてしまうといった大きなミスを行ってしまいました。</t>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>フカンゼン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>チヂ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多くの知識やノウハウを習得したソフトウェア技術者のプロフェッショナルとなっていたいです。</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウトク</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ギジュツシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人員が多いため、Gr内では密にコミュニケーションが取れているが、他Grとの情報共有を含めたコミュニケーション要素が足りない所が今後の改善したい点です。
+それを改善するために、Gr内で取り決めた仕様を他Grのリーダーだけでなく、Gr員にも共有を行い、当事者意識を持たせています。</t>
+    <rPh sb="0" eb="2">
+      <t>ジンイン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="124" eb="127">
+      <t>トウジシャ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あります。ソフトウェア技術者の登竜門である情報技術者試験の資格を取得したり、社内研修を利用して装置開発内外でもソフトウェア技術の知識の習得に努めています。
+資格においては、ソフト技術だけでなくマネジメント要素も試験の対象となっているので、サブリーダを務める時の装置ソフト開発計画策定等のGrマネジメントに役に立っています。</t>
+    <rPh sb="11" eb="14">
+      <t>ギジュツシャ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>トウリュウモン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ギジュツシャ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケンシュウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ナイガイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シュウトク</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ツト</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>ツト</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>サクテイ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装置開発のリーダーをやってみたいです。現在ジョブストレッチにより、印字評価装置Grに
+おいてはサブリーダーを務めているので、今の業務を遂行していく内にリーダーとして必要な技術や要素を身に着けられるのではないかと考えています、</t>
+    <rPh sb="0" eb="2">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>インジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ツト</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>スイコウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1次試験の論文で効率的な改善を行うために心がけている事は何を書いた？</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ロンブン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コウリツテキ</t>
     </rPh>
     <rPh sb="12" eb="14">
-      <t>シュクショウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ケイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まずは第一に、質問しやすい雰囲気作りを心がけています。</t>
-    <rPh sb="3" eb="5">
-      <t>ダイイチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>フンイキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
       <t>ココロ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>楽しい。装置開発ではあるが製品に近い部分であるので</t>
+    <rPh sb="26" eb="27">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽しいです。
+評価装置は事業内で広く使われているため、事業内の重要なポジションに携われているやりがいと共に、開発業務を失敗出来ない責任感も常に感じています。</t>
     <rPh sb="0" eb="1">
       <t>タノ</t>
     </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タズサ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>セキニンカン</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタルプリンティング開発技術第三課　池島孝史と申します。
+よろしくお願いします。
+私の課では、インクジェットプリンタのキーパーツであるプリンタヘッドの評価装置を開発しています。
+評価装置は3種類あり、その中で私はプリンタヘッドの最適な印字条件を検討する「印字評価装置」のソフトウェア開発を担当しています。
+この装置の開発においては、装置のシステム設計の業務に加え、グループのサブリーダーの役割も担っており、進捗管理や後輩指導、他部門との調整等も行っています。
+これらの業務を通じて、ヘッド評価を実施する他部門のユーザーが使いやすい印字評価装置を、タイムリーに提供するべく、日々の業務に取り組んでいます。</t>
+    <rPh sb="91" eb="93">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>サイテキ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>インジ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="267" eb="269">
+      <t>インジ</t>
+    </rPh>
+    <rPh sb="269" eb="271">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今年においてはコロナ禍によって事業に大きな変化があったので、コロナ以前とコロナ以降の2つに分けて話します。
+コロナ以前はコンシューマインクジェット市場自体は縮小傾向にありました。
+コロナ以降は企業の働き方が変化した影響で、前年より売り上げは伸びています。
+またコンシューマやオフィス以外の市場として産業印刷分野への参入を目指した
+製品を開発しています。</t>
+    <rPh sb="0" eb="2">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>シュクショウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ケイコウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ゼンネン</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>サンギョウ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ブンヤ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>サンニュウ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強みは、紙などのメディアに非接触で印刷が可能であることと、印字スピードの速さです。
+弱みは、液体を使うため普通紙では滲んでしまいますし、フィルムなどの非吸収メディアでは溶媒の除去が必要なのでプロセスが複雑になります。</t>
+    <rPh sb="0" eb="1">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>インジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>フツウシ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ニジ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヨウバイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ジョキョ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>フクザツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キヤノンの重点施策の一つでもある産業印刷市場に投入する
+産業用プリンタヘッドの機能・性能検証をしている。</t>
+    <rPh sb="5" eb="7">
+      <t>ジュウテン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シサク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サンギョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウニュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サンギョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キヤノンは熱を用いてインクを飛ばすサーマル方式を採用しており、エプソンほか他社は圧電素子に電荷を与えてインクを飛ばすピエゾ方式を採用しています。サーマル方式はノズル間の密度を狭くする事が出来、高精細、高彩度の印刷が可能となります。</t>
+    <rPh sb="5" eb="6">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>アツデン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソシ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>デンカ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ミツド</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>セマ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="96" eb="99">
+      <t>コウセイサイ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッド開発において必要不可欠な装置開発であり、事業部内においても様々な部門で幅広く使用されているため、事業を支えている自負があるため非常にやりがいを感じています。</t>
+    <rPh sb="3" eb="5">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>フカケツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハバヒロ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ササ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ジフ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価装置開発は一部門しかないですが、製品開発は複数のものが並行に進行しています。特に現在は装置のプラットフォームを一新しようとしているため、人的リソースの配分に苦労しています。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウチ</t>
+    </rPh>
     <rPh sb="4" eb="6">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘイコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
       <t>ソウチ</t>
     </rPh>
-    <rPh sb="6" eb="8">
+    <rPh sb="57" eb="59">
+      <t>イッシン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジンテキ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ハイブン</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>クロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その問題点においてあなたが工夫していることは？</t>
+    <rPh sb="2" eb="4">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クフウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少ない人的リソースで業務を遂行するために、ムダな業務は省き、ルーティンワークにおいてはツールを用いて自動化を行うなど最小限の工数で開発業務を遂行出来るようにしています。</t>
+    <rPh sb="0" eb="1">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジンテキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スイコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハブ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>サイショウゲン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
       <t>カイハツ</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ブブン</t>
+    <rPh sb="67" eb="69">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>スイコウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装置PCのコストダウンを例に説明します。
+従来の評価装置PCは制御基板に画像を送る際にリアルタイムな画像処理と高速通信が要求されたため、特注のPCを発注しなければならず、コストが嵩んでいました。
+今開発中の評価装置では、従来に比べPCのスペックも高性能になったため、特注品だったものを市販品に変え、画像処理の一部をソフトウェアのライブラリを使用して賄う等して装置のコストダウンに取り組んでいます。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジュウライ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>トクチュウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ジュウライ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="123" eb="126">
+      <t>コウセイノウ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>シハン</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>マカナ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="189" eb="190">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役割上他部門との折衝が増えていくと思うので、電気・ファーム・プロセスの知識等幅広く習得する必要があると考えています。</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>タブモン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッショウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュウトク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム内でも前情報として知っている知識の差があるので、全員が理解出来るようにリマインド等の情報を事前に共有しておき、全員の知識共有レベルの平行化をした上で、情報共有を行うなど工夫しています。</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>ヘイコウカ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>クフウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1961,7 +3310,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2415,8 +3764,8 @@
   </sheetPr>
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C21:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2443,7 +3792,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="54" x14ac:dyDescent="0.15">
@@ -2452,7 +3801,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
@@ -2461,13 +3810,13 @@
         <v>26</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" s="12"/>
     </row>
@@ -2477,7 +3826,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2486,7 +3835,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2495,7 +3844,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.15">
@@ -2504,7 +3853,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2512,21 +3861,23 @@
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="10" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -2534,337 +3885,369 @@
         <v>34</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="C25" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-    </row>
-    <row r="30" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="C29" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="81" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="C33" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="10" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
-      <c r="B45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
-      <c r="B46" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" s="10" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2884,7 +4267,7 @@
     <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="5" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C60" s="1"/>
     </row>
@@ -2895,13 +4278,13 @@
       </c>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>88</v>
+      <c r="C62" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -2929,15 +4312,15 @@
         <v>49</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B30:C30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.13" right="0.13" top="0.31" bottom="0.2" header="0.12" footer="0.2"/>
